--- a/docs/todo.xlsx
+++ b/docs/todo.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dude\Documents\dev\spareparts\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLDPHEAD\Documents\DEV\spareparts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E619AD-DCF8-4B42-B218-2990116A8985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C53347-F641-4DF5-9D26-1529E51FB34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32C28D84-F276-44D7-A2C2-BE5CF2903F51}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{32C28D84-F276-44D7-A2C2-BE5CF2903F51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="upgrade" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>19. add CODE of part and substitute part number</t>
   </si>
@@ -104,13 +105,73 @@
   </si>
   <si>
     <t>parts should not be deleted</t>
+  </si>
+  <si>
+    <t>min and max prices not disabled</t>
+  </si>
+  <si>
+    <t>sales history page is not working</t>
+  </si>
+  <si>
+    <t>check if POS is processing sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loans add loan not working I have tried to fix it </t>
+  </si>
+  <si>
+    <t>while completeing transfers there is errors</t>
+  </si>
+  <si>
+    <t>Error recording disposal: name 'format_price_nkf' is not defined in disposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculate the cost price in the parts.py file list_parts(): function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">double entry in the finance trsactions when credit purchase id created and marked revieved </t>
+  </si>
+  <si>
+    <t>some credit purchases are not displayed credit purchases list</t>
+  </si>
+  <si>
+    <t>repair the purchase csv and pdf reports so that they can export correct nkf value. Posible solution multiply the amounts in the reports.py with exchange rate</t>
+  </si>
+  <si>
+    <t>autoselect the first warehouse in the pos add to cart menu the same way as in the add purchase menu</t>
+  </si>
+  <si>
+    <t>sales history page : the amount values are not displayed correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Purchases Report export pdf and csv </t>
+  </si>
+  <si>
+    <t>payment methods have to be in cheque, transfer or cash in the POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make a button in the exchange rates management page to calculate all parts cost price also enter a new field of price in nakfa in addition to the $ price for purchases </t>
+  </si>
+  <si>
+    <t>repair alignment of transfer pdf report in the export_transfers_pdf method in the reports.py file ; possibly trim some info also repair the wrong warehouse names</t>
+  </si>
+  <si>
+    <t>in the New Purchase Order page the parts field is not searchable and also in the Create New Loan page also in the New Credit Purchase page also in the New Stock Transfer page also in the Record Part Disposal page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear All data and try the system throughlly </t>
+  </si>
+  <si>
+    <t>void is not updating bincard and cost price and credit purchases list and purchases list. Also check sales list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generate the code attribute of parts from a drop down list of car manuftureres and original and second level and third level quality and </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +182,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,9 +213,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,9 +235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +275,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -313,7 +381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,123 +533,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1E7ABE-3EFB-4BED-8E12-05262ECA8976}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C25:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -590,4 +658,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566F7387-F463-4289-8172-54255D41BD37}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="181.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7ED95D-BCB7-4EDB-955D-777FA032910B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="57.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/todo.xlsx
+++ b/docs/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLDPHEAD\Documents\DEV\spareparts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C53347-F641-4DF5-9D26-1529E51FB34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B81E59F-B9E2-4F11-9DE5-6DAE9B867D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{32C28D84-F276-44D7-A2C2-BE5CF2903F51}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,7 +704,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/todo.xlsx
+++ b/docs/todo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLDPHEAD\Documents\DEV\spareparts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B81E59F-B9E2-4F11-9DE5-6DAE9B867D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8EFA8-D9BB-42C3-B4FF-8388C99E6049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{32C28D84-F276-44D7-A2C2-BE5CF2903F51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="todo1" sheetId="1" r:id="rId1"/>
+    <sheet name="todo2" sheetId="2" r:id="rId2"/>
     <sheet name="upgrade" sheetId="3" r:id="rId3"/>
+    <sheet name="clean" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>19. add CODE of part and substitute part number</t>
   </si>
@@ -161,10 +162,91 @@
     <t xml:space="preserve">Clear All data and try the system throughlly </t>
   </si>
   <si>
-    <t>void is not updating bincard and cost price and credit purchases list and purchases list. Also check sales list.</t>
-  </si>
-  <si>
     <t xml:space="preserve">generate the code attribute of parts from a drop down list of car manuftureres and original and second level and third level quality and </t>
+  </si>
+  <si>
+    <t>void is not updating bincard and cost price and credit purchases list and purchases list. Also sales list and reports.</t>
+  </si>
+  <si>
+    <t>parts adding is not working</t>
+  </si>
+  <si>
+    <t>|nkf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using the formula :- new price= old price*(new rate/old rate)  </t>
+  </si>
+  <si>
+    <t>whenever a new exchange rate is entered and a button to recalculate selling prices the system loops through all parts and recalculates the selling price of parts.</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\loans\convert_modal.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\emails\invoice.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\finance\reports.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loans changed to sale are not correct value wise in all reports and views </t>
+  </si>
+  <si>
+    <t>a way to show all the loans that are active. Filter by active, sold, overdue, date.</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\parts\detail.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\reports\profit.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\reports\revenue.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\returns\add.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\returns\list.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\sales\new.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\sales\report.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\sales\view.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\dashboard.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\register.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\manage_users.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\index.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\edit_part.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\templates\add_part.html</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\add_voided_column.py</t>
+  </si>
+  <si>
+    <t>C:\Users\PLDPHEAD\Documents\DEV\spareparts\check_sales.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check line 693 sp that the original transaction id be shown in the description of the voiding transactions </t>
+  </si>
+  <si>
+    <t>check all project with unit tests and other relevant tests</t>
   </si>
 </sst>
 </file>
@@ -187,10 +269,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="7"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,7 +298,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +618,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C25:C26"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,10 +746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566F7387-F463-4289-8172-54255D41BD37}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -739,12 +823,12 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
+      <c r="A14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -754,18 +838,58 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -794,4 +918,114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCACF0E3-0CA6-40F3-B6E3-440D1362052E}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/todo.xlsx
+++ b/docs/todo.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLDPHEAD\Documents\DEV\spareparts\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dude\Documents\dev\SparepartsMS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8EFA8-D9BB-42C3-B4FF-8388C99E6049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1963613E-5400-44E8-96FC-8B88663D2DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{32C28D84-F276-44D7-A2C2-BE5CF2903F51}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{32C28D84-F276-44D7-A2C2-BE5CF2903F51}"/>
   </bookViews>
   <sheets>
     <sheet name="todo1" sheetId="1" r:id="rId1"/>
     <sheet name="todo2" sheetId="2" r:id="rId2"/>
-    <sheet name="upgrade" sheetId="3" r:id="rId3"/>
-    <sheet name="clean" sheetId="4" r:id="rId4"/>
+    <sheet name="todo3" sheetId="5" r:id="rId3"/>
+    <sheet name="upgrade" sheetId="3" r:id="rId4"/>
+    <sheet name="clean" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>19. add CODE of part and substitute part number</t>
   </si>
@@ -247,6 +248,33 @@
   </si>
   <si>
     <t>check all project with unit tests and other relevant tests</t>
+  </si>
+  <si>
+    <t>add supplier, Warehouse,Weight Price, USD TO NKF, AED TO USD in the bulk entry reports.</t>
+  </si>
+  <si>
+    <t>description in bulk purchase is not working or having data.</t>
+  </si>
+  <si>
+    <t>reduce stock during addition of loan not during conversion of loan.</t>
+  </si>
+  <si>
+    <t>impliment check status button beside the convert to sale button to check all the payments related to the loan.</t>
+  </si>
+  <si>
+    <t>while converting loans to sale give a choise of payment method. Payment methods could be cash, cheque, transfer. And insert extra info related to the payment method.</t>
+  </si>
+  <si>
+    <t>remove amount and replace with selling price. Total amount = selling price * quantity. Add status to filter.</t>
+  </si>
+  <si>
+    <t>in Point of sale give a choise of payment method. Payment methods could be cash, cheque, transfer. And insert extra info related to the payment method.</t>
+  </si>
+  <si>
+    <t>cheque payment report and transfer payment reports</t>
+  </si>
+  <si>
+    <t>graphs in the dashboard are not displaying correctly. Download all resources, stylesheet and scripts that are refering to cdn servers.</t>
   </si>
 </sst>
 </file>
@@ -319,9 +347,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +387,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +493,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,7 +635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,119 +649,119 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -748,146 +776,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566F7387-F463-4289-8172-54255D41BD37}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="110" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="181.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="181.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -898,6 +926,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F45009-85C3-4BD3-9AF6-F5308ABAC757}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="141" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7ED95D-BCB7-4EDB-955D-777FA032910B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -905,12 +997,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -920,7 +1012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCACF0E3-0CA6-40F3-B6E3-440D1362052E}">
   <dimension ref="A1:A23"/>
   <sheetViews>
@@ -928,99 +1020,99 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>

--- a/docs/todo.xlsx
+++ b/docs/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dude\Documents\dev\SparepartsMS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1963613E-5400-44E8-96FC-8B88663D2DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B098E453-D2CE-43E7-BDB1-1C37CD96FD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{32C28D84-F276-44D7-A2C2-BE5CF2903F51}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>19. add CODE of part and substitute part number</t>
   </si>
@@ -275,13 +275,16 @@
   </si>
   <si>
     <t>graphs in the dashboard are not displaying correctly. Download all resources, stylesheet and scripts that are refering to cdn servers.</t>
+  </si>
+  <si>
+    <t>add total of amounts at the sales PDF report in the http://127.0.0.1:5000/sales page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,119 +652,119 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -780,142 +783,142 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="181.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="181.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -927,60 +930,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F45009-85C3-4BD3-9AF6-F5308ABAC757}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="141" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="146.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -997,12 +1005,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1020,99 +1028,99 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>67</v>
       </c>
